--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.12874655722704</v>
+        <v>1.155534666666667</v>
       </c>
       <c r="H2">
-        <v>1.12874655722704</v>
+        <v>3.466604</v>
       </c>
       <c r="I2">
-        <v>0.09118660820906677</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="J2">
-        <v>0.09118660820906677</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.39072625964406</v>
+        <v>2.3998</v>
       </c>
       <c r="N2">
-        <v>2.39072625964406</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O2">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P2">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q2">
-        <v>2.698524034845511</v>
+        <v>2.773052093066668</v>
       </c>
       <c r="R2">
-        <v>2.698524034845511</v>
+        <v>24.9574688376</v>
       </c>
       <c r="S2">
-        <v>0.04076972538903164</v>
+        <v>0.03172355473483989</v>
       </c>
       <c r="T2">
-        <v>0.04076972538903164</v>
+        <v>0.03172355473483988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.12874655722704</v>
+        <v>1.155534666666667</v>
       </c>
       <c r="H3">
-        <v>1.12874655722704</v>
+        <v>3.466604</v>
       </c>
       <c r="I3">
-        <v>0.09118660820906677</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="J3">
-        <v>0.09118660820906677</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.95643310169763</v>
+        <v>4.065646999999999</v>
       </c>
       <c r="N3">
-        <v>2.95643310169763</v>
+        <v>12.196941</v>
       </c>
       <c r="O3">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="P3">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="Q3">
-        <v>3.33706368521326</v>
+        <v>4.697996050929333</v>
       </c>
       <c r="R3">
-        <v>3.33706368521326</v>
+        <v>42.281964458364</v>
       </c>
       <c r="S3">
-        <v>0.05041688282003512</v>
+        <v>0.05374480170724125</v>
       </c>
       <c r="T3">
-        <v>0.05041688282003512</v>
+        <v>0.05374480170724125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658439472830825</v>
+        <v>1.155534666666667</v>
       </c>
       <c r="H4">
-        <v>0.658439472830825</v>
+        <v>3.466604</v>
       </c>
       <c r="I4">
-        <v>0.0531925097392187</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="J4">
-        <v>0.0531925097392187</v>
+        <v>0.08588454688409856</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.39072625964406</v>
+        <v>0.03148366666666667</v>
       </c>
       <c r="N4">
-        <v>2.39072625964406</v>
+        <v>0.09445099999999999</v>
       </c>
       <c r="O4">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306607</v>
       </c>
       <c r="P4">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306606</v>
       </c>
       <c r="Q4">
-        <v>1.574148538082845</v>
+        <v>0.03638046826711112</v>
       </c>
       <c r="R4">
-        <v>1.574148538082845</v>
+        <v>0.327424214404</v>
       </c>
       <c r="S4">
-        <v>0.023782483606027</v>
+        <v>0.0004161904420174406</v>
       </c>
       <c r="T4">
-        <v>0.023782483606027</v>
+        <v>0.0004161904420174405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.658439472830825</v>
+        <v>0.8102856666666666</v>
       </c>
       <c r="H5">
-        <v>0.658439472830825</v>
+        <v>2.430857</v>
       </c>
       <c r="I5">
-        <v>0.0531925097392187</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="J5">
-        <v>0.0531925097392187</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.95643310169763</v>
+        <v>2.3998</v>
       </c>
       <c r="N5">
-        <v>2.95643310169763</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O5">
-        <v>0.5528978850100724</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P5">
-        <v>0.5528978850100724</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q5">
-        <v>1.946632252941388</v>
+        <v>1.944523542866667</v>
       </c>
       <c r="R5">
-        <v>1.946632252941388</v>
+        <v>17.5007118858</v>
       </c>
       <c r="S5">
-        <v>0.0294100261331917</v>
+        <v>0.02224523628659883</v>
       </c>
       <c r="T5">
-        <v>0.0294100261331917</v>
+        <v>0.02224523628659883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.60998630949877</v>
+        <v>0.8102856666666666</v>
       </c>
       <c r="H6">
-        <v>3.60998630949877</v>
+        <v>2.430857</v>
       </c>
       <c r="I6">
-        <v>0.2916353588294013</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="J6">
-        <v>0.2916353588294013</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39072625964406</v>
+        <v>4.065646999999999</v>
       </c>
       <c r="N6">
-        <v>2.39072625964406</v>
+        <v>12.196941</v>
       </c>
       <c r="O6">
-        <v>0.4471021149899275</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="P6">
-        <v>0.4471021149899275</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="Q6">
-        <v>8.630489067074258</v>
+        <v>3.294335489826333</v>
       </c>
       <c r="R6">
-        <v>8.630489067074258</v>
+        <v>29.64901940843699</v>
       </c>
       <c r="S6">
-        <v>0.1303907857384717</v>
+        <v>0.0376870064892498</v>
       </c>
       <c r="T6">
-        <v>0.1303907857384717</v>
+        <v>0.0376870064892498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.60998630949877</v>
+        <v>0.8102856666666666</v>
       </c>
       <c r="H7">
-        <v>3.60998630949877</v>
+        <v>2.430857</v>
       </c>
       <c r="I7">
-        <v>0.2916353588294013</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="J7">
-        <v>0.2916353588294013</v>
+        <v>0.06022408443105677</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.95643310169763</v>
+        <v>0.03148366666666667</v>
       </c>
       <c r="N7">
-        <v>2.95643310169763</v>
+        <v>0.09445099999999999</v>
       </c>
       <c r="O7">
-        <v>0.5528978850100724</v>
+        <v>0.004845929298306607</v>
       </c>
       <c r="P7">
-        <v>0.5528978850100724</v>
+        <v>0.004845929298306606</v>
       </c>
       <c r="Q7">
-        <v>10.67268302207743</v>
+        <v>0.02551076383411111</v>
       </c>
       <c r="R7">
-        <v>10.67268302207743</v>
+        <v>0.2295968745069999</v>
       </c>
       <c r="S7">
-        <v>0.1612445730909295</v>
+        <v>0.0002918416552081488</v>
       </c>
       <c r="T7">
-        <v>0.1612445730909295</v>
+        <v>0.0002918416552081487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.5726827815599</v>
+        <v>3.685238666666667</v>
       </c>
       <c r="H8">
-        <v>6.5726827815599</v>
+        <v>11.055716</v>
       </c>
       <c r="I8">
-        <v>0.5309789392908228</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="J8">
-        <v>0.5309789392908228</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.39072625964406</v>
+        <v>2.3998</v>
       </c>
       <c r="N8">
-        <v>2.39072625964406</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O8">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P8">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q8">
-        <v>15.71348532218562</v>
+        <v>8.843835752266669</v>
       </c>
       <c r="R8">
-        <v>15.71348532218562</v>
+        <v>79.59452177040001</v>
       </c>
       <c r="S8">
-        <v>0.2374018067720352</v>
+        <v>0.1011729668744527</v>
       </c>
       <c r="T8">
-        <v>0.2374018067720352</v>
+        <v>0.1011729668744527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.5726827815599</v>
+        <v>3.685238666666667</v>
       </c>
       <c r="H9">
-        <v>6.5726827815599</v>
+        <v>11.055716</v>
       </c>
       <c r="I9">
-        <v>0.5309789392908228</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="J9">
-        <v>0.5309789392908228</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.95643310169763</v>
+        <v>4.065646999999999</v>
       </c>
       <c r="N9">
-        <v>2.95643310169763</v>
+        <v>12.196941</v>
       </c>
       <c r="O9">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="P9">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="Q9">
-        <v>19.43169694236174</v>
+        <v>14.98287952941733</v>
       </c>
       <c r="R9">
-        <v>19.43169694236174</v>
+        <v>134.845915764756</v>
       </c>
       <c r="S9">
-        <v>0.2935771325187876</v>
+        <v>0.171403270795157</v>
       </c>
       <c r="T9">
-        <v>0.2935771325187876</v>
+        <v>0.171403270795157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.408569511578683</v>
+        <v>3.685238666666667</v>
       </c>
       <c r="H10">
-        <v>0.408569511578683</v>
+        <v>11.055716</v>
       </c>
       <c r="I10">
-        <v>0.0330065839314904</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="J10">
-        <v>0.0330065839314904</v>
+        <v>0.2739035549313618</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.39072625964406</v>
+        <v>0.03148366666666667</v>
       </c>
       <c r="N10">
-        <v>2.39072625964406</v>
+        <v>0.09445099999999999</v>
       </c>
       <c r="O10">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306607</v>
       </c>
       <c r="P10">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306606</v>
       </c>
       <c r="Q10">
-        <v>0.9767778602211052</v>
+        <v>0.1160248257684444</v>
       </c>
       <c r="R10">
-        <v>0.9767778602211052</v>
+        <v>1.044223431916</v>
       </c>
       <c r="S10">
-        <v>0.01475731348436192</v>
+        <v>0.001327317261752219</v>
       </c>
       <c r="T10">
-        <v>0.01475731348436192</v>
+        <v>0.001327317261752219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.390795</v>
+      </c>
+      <c r="H11">
+        <v>22.172385</v>
+      </c>
+      <c r="I11">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="J11">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.3998</v>
+      </c>
+      <c r="N11">
+        <v>7.199400000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="P11">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="Q11">
+        <v>17.736429841</v>
+      </c>
+      <c r="R11">
+        <v>159.627868569</v>
+      </c>
+      <c r="S11">
+        <v>0.2029037262835452</v>
+      </c>
+      <c r="T11">
+        <v>0.2029037262835451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.408569511578683</v>
-      </c>
-      <c r="H11">
-        <v>0.408569511578683</v>
-      </c>
-      <c r="I11">
-        <v>0.0330065839314904</v>
-      </c>
-      <c r="J11">
-        <v>0.0330065839314904</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.95643310169763</v>
-      </c>
-      <c r="N11">
-        <v>2.95643310169763</v>
-      </c>
-      <c r="O11">
-        <v>0.5528978850100724</v>
-      </c>
-      <c r="P11">
-        <v>0.5528978850100724</v>
-      </c>
-      <c r="Q11">
-        <v>1.207908428375651</v>
-      </c>
-      <c r="R11">
-        <v>1.207908428375651</v>
-      </c>
-      <c r="S11">
-        <v>0.01824927044712849</v>
-      </c>
-      <c r="T11">
-        <v>0.01824927044712849</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.390795</v>
+      </c>
+      <c r="H12">
+        <v>22.172385</v>
+      </c>
+      <c r="I12">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="J12">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.065646999999999</v>
+      </c>
+      <c r="N12">
+        <v>12.196941</v>
+      </c>
+      <c r="O12">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="P12">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="Q12">
+        <v>30.04836351936499</v>
+      </c>
+      <c r="R12">
+        <v>270.4352716742849</v>
+      </c>
+      <c r="S12">
+        <v>0.3437515318166165</v>
+      </c>
+      <c r="T12">
+        <v>0.3437515318166165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.390795</v>
+      </c>
+      <c r="H13">
+        <v>22.172385</v>
+      </c>
+      <c r="I13">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="J13">
+        <v>0.5493172104644152</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03148366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09445099999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.004845929298306607</v>
+      </c>
+      <c r="P13">
+        <v>0.004845929298306606</v>
+      </c>
+      <c r="Q13">
+        <v>0.2326893261816667</v>
+      </c>
+      <c r="R13">
+        <v>2.094203935635</v>
+      </c>
+      <c r="S13">
+        <v>0.002661952364253566</v>
+      </c>
+      <c r="T13">
+        <v>0.002661952364253566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.412658</v>
+      </c>
+      <c r="H14">
+        <v>1.237974</v>
+      </c>
+      <c r="I14">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="J14">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.3998</v>
+      </c>
+      <c r="N14">
+        <v>7.199400000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="P14">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="Q14">
+        <v>0.9902966684000001</v>
+      </c>
+      <c r="R14">
+        <v>8.9126700156</v>
+      </c>
+      <c r="S14">
+        <v>0.01132893631614937</v>
+      </c>
+      <c r="T14">
+        <v>0.01132893631614937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.412658</v>
+      </c>
+      <c r="H15">
+        <v>1.237974</v>
+      </c>
+      <c r="I15">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="J15">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.065646999999999</v>
+      </c>
+      <c r="N15">
+        <v>12.196941</v>
+      </c>
+      <c r="O15">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="P15">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="Q15">
+        <v>1.677721759726</v>
+      </c>
+      <c r="R15">
+        <v>15.099495837534</v>
+      </c>
+      <c r="S15">
+        <v>0.01919303939784303</v>
+      </c>
+      <c r="T15">
+        <v>0.01919303939784303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.412658</v>
+      </c>
+      <c r="H16">
+        <v>1.237974</v>
+      </c>
+      <c r="I16">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="J16">
+        <v>0.03067060328906763</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03148366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.09445099999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004845929298306607</v>
+      </c>
+      <c r="P16">
+        <v>0.004845929298306606</v>
+      </c>
+      <c r="Q16">
+        <v>0.01299198691933333</v>
+      </c>
+      <c r="R16">
+        <v>0.116927882274</v>
+      </c>
+      <c r="S16">
+        <v>0.0001486275750752318</v>
+      </c>
+      <c r="T16">
+        <v>0.0001486275750752318</v>
       </c>
     </row>
   </sheetData>
